--- a/examples/PHIPA/experiments.xlsx
+++ b/examples/PHIPA/experiments.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -413,7 +413,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20191206a1.itc</t>
+          <t>20191210a1.itc</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,7 +462,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20191206a2.itc</t>
+          <t>20191210a2.itc</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -511,7 +511,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20191206a3.itc</t>
+          <t>20191210a3.itc</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -560,12 +560,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20191206a4.itc</t>
+          <t>20191210a4.itc</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>buffer into receptor</t>
+          <t>titration of Compound 46 into buffer (replicate 1)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>4.916364108287615</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -609,22 +609,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20191206a5.itc</t>
+          <t>20191210a5.itc</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SIM Compound 46 into buffer (replicate 1)</t>
+          <t>titration of Compound 46 into receptor (replicate 1)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Plates Quick.setup</t>
+          <t>Plates Clean.setup</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1 Injection SIM.inj</t>
+          <t>ChoderaHSA.inj</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>4.916364108287615</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -658,12 +658,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20191206a6.itc</t>
+          <t>20191210a6.itc</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SIM Compound 46 into receptor (replicate 1)</t>
+          <t>SIM Compound 46 into buffer (replicate 1)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1 Injection SIM.inj</t>
+          <t>ChoderaHSA.inj</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>4.916364108287615</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -707,17 +707,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20191206a7.itc</t>
+          <t>20191210a7.itc</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>titration of Compound 46 into buffer (replicate 1)</t>
+          <t>SIM Compound 46 into receptor (replicate 1)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Plates Quick.setup</t>
+          <t>Plates Clean.setup</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -731,10 +731,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3311005429401354</v>
+        <v>4.916364108287615</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -756,12 +756,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20191206a8.itc</t>
+          <t>20191210a8.itc</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>titration of Compound 46 into receptor (replicate 1)</t>
+          <t>HDR Compound 46 into buffer (replicate 1)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3311005429401354</v>
+        <v>4.916364108287615</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -805,22 +805,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20191206a9.itc</t>
+          <t>20191210a9.itc</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SIM Compound 46 into buffer (replicate 2)</t>
+          <t>HDR Compound 46 into receptor (replicate 1)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Plates Quick.setup</t>
+          <t>Plates Clean.setup</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1 Injection SIM.inj</t>
+          <t>ChoderaHSA.inj</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>4.916364108287615</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -854,12 +854,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20191206a10.itc</t>
+          <t>20191210a10.itc</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SIM Compound 46 into receptor (replicate 2)</t>
+          <t>titration of Compound 46 into buffer (replicate 1)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1 Injection SIM.inj</t>
+          <t>ChoderaHSA.inj</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -878,10 +878,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.352137824470005</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -903,17 +903,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20191206a11.itc</t>
+          <t>20191210a11.itc</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>titration of Compound 46 into buffer (replicate 2)</t>
+          <t>titration of Compound 46 into receptor (replicate 1)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Plates Quick.setup</t>
+          <t>Plates Clean.setup</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -927,10 +927,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3311005429401354</v>
+        <v>5.352137824470005</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -952,12 +952,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20191206a12.itc</t>
+          <t>20191210a12.itc</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>titration of Compound 46 into receptor (replicate 2)</t>
+          <t>SIM Compound 46 into buffer (replicate 1)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -976,10 +976,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3311005429401354</v>
+        <v>5.352137824470005</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1001,17 +1001,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20191206a13.itc</t>
+          <t>20191210a13.itc</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>buffer into receptor</t>
+          <t>SIM Compound 46 into receptor (replicate 1)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Plates Quick.setup</t>
+          <t>Plates Clean.setup</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1028,7 +1028,7 @@
         <v>0.02</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.352137824470005</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1050,12 +1050,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20191206a14.itc</t>
+          <t>20191210a14.itc</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SIM Compound 46 into buffer (replicate 1)</t>
+          <t>HDR Compound 46 into buffer (replicate 1)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1 Injection SIM.inj</t>
+          <t>ChoderaHSA.inj</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>5.352137824470005</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1099,22 +1099,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20191206a15.itc</t>
+          <t>20191210a15.itc</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SIM Compound 46 into receptor (replicate 1)</t>
+          <t>HDR Compound 46 into receptor (replicate 1)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Plates Quick.setup</t>
+          <t>Plates Clean.setup</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1 Injection SIM.inj</t>
+          <t>ChoderaHSA.inj</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1126,7 +1126,7 @@
         <v>0.02</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>5.352137824470005</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1148,12 +1148,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20191206a16.itc</t>
+          <t>20191210a16.itc</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>titration of Compound 46 into buffer (replicate 1)</t>
+          <t>water into water</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1163,19 +1163,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ChoderaHSA.inj</t>
+          <t>ChoderaWaterWater.inj</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Onesite</t>
+          <t>Control</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5231503635202742</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1191,790 +1191,6 @@
       <c r="K17" t="inlineStr">
         <is>
           <t>Plate1, G4</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>20191206a17.itc</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>titration of Compound 46 into receptor (replicate 1)</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Plates Quick.setup</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>ChoderaHSA.inj</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Onesite</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.5231503635202742</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Plate1, A5</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Plate1, B5</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Plate1, A5</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>20191206a18.itc</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>SIM Compound 46 into buffer (replicate 2)</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Plates Quick.setup</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1 Injection SIM.inj</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Onesite</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Plate1, C5</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Plate1, D5</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Plate1, C5</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>20191206a19.itc</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>SIM Compound 46 into receptor (replicate 2)</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Plates Quick.setup</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1 Injection SIM.inj</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Onesite</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Plate1, E5</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Plate1, F5</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Plate1, E5</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>20191206a20.itc</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>titration of Compound 46 into buffer (replicate 2)</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Plates Quick.setup</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>ChoderaHSA.inj</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Onesite</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.5231503635202742</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Plate1, G5</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Plate1, H5</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Plate1, G5</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>20191206a21.itc</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>titration of Compound 46 into receptor (replicate 2)</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Plates Quick.setup</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>ChoderaHSA.inj</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Onesite</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.5231503635202742</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Plate1, A6</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Plate1, B6</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Plate1, A6</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>20191206a22.itc</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>buffer into receptor</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Plates Quick.setup</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>ChoderaHSA.inj</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Onesite</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Plate1, C6</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Plate1, D6</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Plate1, C6</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>20191206a23.itc</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>SIM Compound 46 into buffer (replicate 1)</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Plates Quick.setup</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1 Injection SIM.inj</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Onesite</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Plate1, E6</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Plate1, F6</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Plate1, E6</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>20191206a24.itc</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>SIM Compound 46 into receptor (replicate 1)</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Plates Quick.setup</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1 Injection SIM.inj</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Onesite</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Plate1, G6</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Plate1, H6</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Plate1, G6</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>20191206a25.itc</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>titration of Compound 46 into buffer (replicate 1)</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Plates Quick.setup</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>ChoderaHSA.inj</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Onesite</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.8575285224941928</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Plate1, A7</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Plate1, B7</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Plate1, A7</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>20191206a26.itc</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>titration of Compound 46 into receptor (replicate 1)</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Plates Quick.setup</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>ChoderaHSA.inj</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Onesite</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.8575285224941928</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Plate1, C7</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Plate1, D7</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Plate1, C7</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>20191206a27.itc</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>SIM Compound 46 into buffer (replicate 2)</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Plates Quick.setup</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1 Injection SIM.inj</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Onesite</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Plate1, E7</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Plate1, F7</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Plate1, E7</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>20191206a31.itc</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>SIM Compound 46 into receptor (replicate 2)</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Plates Quick.setup</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1 Injection SIM.inj</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Onesite</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Plate1, E8</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Plate1, F8</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Plate1, E8</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>20191206a29.itc</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>titration of Compound 46 into buffer (replicate 2)</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Plates Quick.setup</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>ChoderaHSA.inj</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Onesite</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.8575285224941928</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Plate1, A8</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Plate1, B8</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Plate1, A8</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>20191206a30.itc</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>titration of Compound 46 into receptor (replicate 2)</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Plates Quick.setup</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>ChoderaHSA.inj</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Onesite</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.8575285224941928</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Plate1, C8</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Plate1, D8</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Plate1, C8</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>20191206a31.itc</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>SIM Compound 46 into receptor (replicate 2)</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Plates Quick.setup</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1 Injection SIM.inj</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Onesite</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Plate1, E8</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Plate1, F8</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Plate1, E8</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>20191206a32.itc</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>water into water</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Plates Quick.setup</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>ChoderaWaterWater.inj</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Control</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Plate1, G8</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Plate1, H8</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Plate1, G8</t>
         </is>
       </c>
     </row>

--- a/examples/PHIPA/experiments.xlsx
+++ b/examples/PHIPA/experiments.xlsx
@@ -673,7 +673,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ChoderaHSA.inj</t>
+          <t>1 Injection SIM.inj</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -717,12 +717,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Plates Clean.setup</t>
+          <t>Plates Quick.setup</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ChoderaHSA.inj</t>
+          <t>1 Injection SIM.inj</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ChoderaHSA.inj</t>
+          <t>ChoderaHDR.inj</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Plates Clean.setup</t>
+          <t>Plates Quick.setup</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ChoderaHSA.inj</t>
+          <t>ChoderaHDR.inj</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ChoderaHSA.inj</t>
+          <t>1 Injection SIM.inj</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1011,12 +1011,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Plates Clean.setup</t>
+          <t>Plates Quick.setup</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ChoderaHSA.inj</t>
+          <t>1 Injection SIM.inj</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ChoderaHSA.inj</t>
+          <t>ChoderaHDR.inj</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1109,12 +1109,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Plates Clean.setup</t>
+          <t>Plates Quick.setup</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ChoderaHSA.inj</t>
+          <t>ChoderaHDR.inj</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">

--- a/examples/PHIPA/experiments.xlsx
+++ b/examples/PHIPA/experiments.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -413,7 +413,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20191210a1.itc</t>
+          <t>20191211a1.itc</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,7 +462,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20191210a2.itc</t>
+          <t>20191211a2.itc</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -511,7 +511,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20191210a3.itc</t>
+          <t>20191211a3.itc</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -560,7 +560,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20191210a4.itc</t>
+          <t>20191211a4.itc</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.916364108287615</v>
+        <v>4.025027875879669</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20191210a5.itc</t>
+          <t>20191211a5.itc</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -636,7 +636,7 @@
         <v>0.01</v>
       </c>
       <c r="G6" t="n">
-        <v>4.916364108287615</v>
+        <v>4.025027875879669</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20191210a6.itc</t>
+          <t>20191211a6.itc</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4.916364108287615</v>
+        <v>4.025027875879669</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -707,7 +707,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20191210a7.itc</t>
+          <t>20191211a7.itc</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -734,7 +734,7 @@
         <v>0.01</v>
       </c>
       <c r="G8" t="n">
-        <v>4.916364108287615</v>
+        <v>4.025027875879669</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20191210a8.itc</t>
+          <t>20191211a8.itc</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>4.916364108287615</v>
+        <v>4.025027875879669</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20191210a9.itc</t>
+          <t>20191211a9.itc</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -832,7 +832,7 @@
         <v>0.01</v>
       </c>
       <c r="G10" t="n">
-        <v>4.916364108287615</v>
+        <v>4.025027875879669</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20191210a10.itc</t>
+          <t>20191211a10.itc</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.352137824470005</v>
+        <v>4.441781158693494</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20191210a11.itc</t>
+          <t>20191211a11.itc</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -930,7 +930,7 @@
         <v>0.02</v>
       </c>
       <c r="G12" t="n">
-        <v>5.352137824470005</v>
+        <v>4.441781158693494</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20191210a12.itc</t>
+          <t>20191211a12.itc</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>5.352137824470005</v>
+        <v>4.441781158693494</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20191210a13.itc</t>
+          <t>20191211a13.itc</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1028,7 +1028,7 @@
         <v>0.02</v>
       </c>
       <c r="G14" t="n">
-        <v>5.352137824470005</v>
+        <v>4.441781158693494</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20191210a14.itc</t>
+          <t>20191211a14.itc</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>5.352137824470005</v>
+        <v>4.441781158693494</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20191210a15.itc</t>
+          <t>20191211a15.itc</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1126,7 +1126,7 @@
         <v>0.02</v>
       </c>
       <c r="G16" t="n">
-        <v>5.352137824470005</v>
+        <v>4.441781158693494</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1148,12 +1148,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20191210a16.itc</t>
+          <t>20191211a16.itc</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>water into water</t>
+          <t>titration of Compound 46 into buffer (replicate 1)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1163,19 +1163,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ChoderaWaterWater.inj</t>
+          <t>ChoderaHSA.inj</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Control</t>
+          <t>Onesite</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>4.816933648886398</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1191,6 +1191,300 @@
       <c r="K17" t="inlineStr">
         <is>
           <t>Plate1, G4</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>20191211a17.itc</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>titration of Compound 46 into receptor (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Plates Clean.setup</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ChoderaHSA.inj</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4.816933648886398</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Plate1, A5</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Plate1, B5</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Plate1, A5</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>20191211a18.itc</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SIM Compound 46 into buffer (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1 Injection SIM.inj</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4.816933648886398</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Plate1, C5</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Plate1, D5</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Plate1, C5</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>20191211a19.itc</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SIM Compound 46 into receptor (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1 Injection SIM.inj</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4.816933648886398</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Plate1, E5</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Plate1, F5</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Plate1, E5</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20191211a20.itc</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>HDR Compound 46 into buffer (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ChoderaHDR.inj</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4.816933648886398</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Plate1, G5</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Plate1, H5</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Plate1, G5</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>20191211a21.itc</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>HDR Compound 46 into receptor (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ChoderaHDR.inj</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4.816933648886398</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Plate1, A6</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Plate1, B6</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Plate1, A6</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>20191211a22.itc</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>water into water</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ChoderaWaterWater.inj</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Plate1, C6</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Plate1, D6</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Plate1, C6</t>
         </is>
       </c>
     </row>

--- a/examples/PHIPA/experiments.xlsx
+++ b/examples/PHIPA/experiments.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -413,7 +413,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20191211a1.itc</t>
+          <t>20191213a1.itc</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,7 +462,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20191211a2.itc</t>
+          <t>20191213a2.itc</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -511,7 +511,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20191211a3.itc</t>
+          <t>20191213a3.itc</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -560,12 +560,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20191211a4.itc</t>
+          <t>20191213a4.itc</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>titration of Compound 46 into buffer (replicate 1)</t>
+          <t>titration of Compound 10 into buffer (replicate 1)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -609,12 +609,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20191211a5.itc</t>
+          <t>20191213a5.itc</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>titration of Compound 46 into receptor (replicate 1)</t>
+          <t>titration of Compound 10 into receptor (replicate 1)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -658,12 +658,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20191211a6.itc</t>
+          <t>20191213a6.itc</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SIM Compound 46 into buffer (replicate 1)</t>
+          <t>SIM Compound 10 into buffer (replicate 1)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -707,12 +707,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20191211a7.itc</t>
+          <t>20191213a7.itc</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SIM Compound 46 into receptor (replicate 1)</t>
+          <t>SIM Compound 10 into receptor (replicate 1)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -756,12 +756,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20191211a8.itc</t>
+          <t>20191213a8.itc</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HDR Compound 46 into buffer (replicate 1)</t>
+          <t>HDR Compound 10 into buffer (replicate 1)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -805,12 +805,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20191211a9.itc</t>
+          <t>20191213a9.itc</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HDR Compound 46 into receptor (replicate 1)</t>
+          <t>HDR Compound 10 into receptor (replicate 1)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -854,12 +854,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20191211a10.itc</t>
+          <t>20191213a10.itc</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>titration of Compound 46 into buffer (replicate 1)</t>
+          <t>titration of Compound 26 into buffer (replicate 1)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.441781158693494</v>
+        <v>4.025027875879669</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -903,12 +903,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20191211a11.itc</t>
+          <t>20191213a11.itc</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>titration of Compound 46 into receptor (replicate 1)</t>
+          <t>titration of Compound 26 into receptor (replicate 1)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -927,10 +927,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G12" t="n">
-        <v>4.441781158693494</v>
+        <v>4.025027875879669</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -952,12 +952,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20191211a12.itc</t>
+          <t>20191213a12.itc</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SIM Compound 46 into buffer (replicate 1)</t>
+          <t>SIM Compound 26 into buffer (replicate 1)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>4.441781158693494</v>
+        <v>4.025027875879669</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1001,12 +1001,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20191211a13.itc</t>
+          <t>20191213a13.itc</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SIM Compound 46 into receptor (replicate 1)</t>
+          <t>SIM Compound 26 into receptor (replicate 1)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1025,10 +1025,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G14" t="n">
-        <v>4.441781158693494</v>
+        <v>4.025027875879669</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1050,12 +1050,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20191211a14.itc</t>
+          <t>20191213a14.itc</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HDR Compound 46 into buffer (replicate 1)</t>
+          <t>HDR Compound 26 into buffer (replicate 1)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>4.441781158693494</v>
+        <v>4.025027875879669</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1099,12 +1099,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20191211a15.itc</t>
+          <t>20191213a15.itc</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HDR Compound 46 into receptor (replicate 1)</t>
+          <t>HDR Compound 26 into receptor (replicate 1)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G16" t="n">
-        <v>4.441781158693494</v>
+        <v>4.025027875879669</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1148,12 +1148,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20191211a16.itc</t>
+          <t>20191213a16.itc</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>titration of Compound 46 into buffer (replicate 1)</t>
+          <t>titration of Compound 34 into buffer (replicate 1)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.816933648886398</v>
+        <v>4.025027875879669</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1197,12 +1197,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20191211a17.itc</t>
+          <t>20191213a17.itc</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>titration of Compound 46 into receptor (replicate 1)</t>
+          <t>titration of Compound 34 into receptor (replicate 1)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1221,10 +1221,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G18" t="n">
-        <v>4.816933648886398</v>
+        <v>4.025027875879669</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1246,12 +1246,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20191211a18.itc</t>
+          <t>20191213a18.itc</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SIM Compound 46 into buffer (replicate 1)</t>
+          <t>SIM Compound 34 into buffer (replicate 1)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1273,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>4.816933648886398</v>
+        <v>4.025027875879669</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1295,12 +1295,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20191211a19.itc</t>
+          <t>20191213a19.itc</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SIM Compound 46 into receptor (replicate 1)</t>
+          <t>SIM Compound 34 into receptor (replicate 1)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1319,10 +1319,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G20" t="n">
-        <v>4.816933648886398</v>
+        <v>4.025027875879669</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1344,12 +1344,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20191211a20.itc</t>
+          <t>20191213a20.itc</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HDR Compound 46 into buffer (replicate 1)</t>
+          <t>HDR Compound 34 into buffer (replicate 1)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>4.816933648886398</v>
+        <v>4.025027875879669</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1393,12 +1393,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20191211a21.itc</t>
+          <t>20191213a21.itc</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HDR Compound 46 into receptor (replicate 1)</t>
+          <t>HDR Compound 34 into receptor (replicate 1)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G22" t="n">
-        <v>4.816933648886398</v>
+        <v>4.025027875879669</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1442,12 +1442,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20191211a22.itc</t>
+          <t>20191213a22.itc</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>water into water</t>
+          <t>titration of Compound 10 into buffer (replicate 1)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1457,19 +1457,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ChoderaWaterWater.inj</t>
+          <t>ChoderaHSA.inj</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Control</t>
+          <t>Onesite</t>
         </is>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>4.441781158693494</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1485,6 +1485,1770 @@
       <c r="K23" t="inlineStr">
         <is>
           <t>Plate1, C6</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>20191213a23.itc</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>titration of Compound 10 into receptor (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Plates Clean.setup</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ChoderaHSA.inj</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4.441781158693494</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Plate1, E6</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Plate1, F6</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Plate1, E6</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>20191213a24.itc</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SIM Compound 10 into buffer (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1 Injection SIM.inj</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4.441781158693494</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Plate1, G6</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Plate1, H6</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Plate1, G6</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>20191213a25.itc</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SIM Compound 10 into receptor (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1 Injection SIM.inj</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4.441781158693494</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Plate1, A7</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Plate1, B7</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Plate1, A7</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>20191213a26.itc</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>HDR Compound 10 into buffer (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ChoderaHDR.inj</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4.441781158693494</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Plate1, C7</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Plate1, D7</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Plate1, C7</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>20191213a27.itc</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>HDR Compound 10 into receptor (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ChoderaHDR.inj</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4.441781158693494</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Plate1, E7</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Plate1, F7</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Plate1, E7</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>20191213a28.itc</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>titration of Compound 26 into buffer (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ChoderaHSA.inj</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4.441781158693494</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Plate1, G7</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Plate1, H7</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Plate1, G7</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>20191213a29.itc</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>titration of Compound 26 into receptor (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Plates Clean.setup</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ChoderaHSA.inj</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4.441781158693494</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Plate1, A8</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Plate1, B8</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Plate1, A8</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>20191213a30.itc</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SIM Compound 26 into buffer (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1 Injection SIM.inj</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4.441781158693494</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Plate1, C8</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Plate1, D8</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Plate1, C8</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>20191213a31.itc</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SIM Compound 26 into receptor (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1 Injection SIM.inj</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4.441781158693494</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Plate1, E8</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Plate1, F8</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Plate1, E8</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>20191213a32.itc</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>HDR Compound 26 into buffer (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ChoderaHDR.inj</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4.441781158693494</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Plate1, G8</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Plate1, H8</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Plate1, G8</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>20191213a33.itc</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>HDR Compound 26 into receptor (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ChoderaHDR.inj</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4.441781158693494</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Plate1, A9</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Plate1, B9</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Plate1, A9</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>20191213a34.itc</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>titration of Compound 34 into buffer (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>ChoderaHSA.inj</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4.441781158693494</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Plate1, C9</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Plate1, D9</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Plate1, C9</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>20191213a35.itc</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>titration of Compound 34 into receptor (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Plates Clean.setup</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>ChoderaHSA.inj</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G36" t="n">
+        <v>4.441781158693494</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Plate1, E9</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Plate1, F9</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Plate1, E9</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>20191213a36.itc</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SIM Compound 34 into buffer (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1 Injection SIM.inj</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4.441781158693494</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Plate1, G9</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Plate1, H9</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Plate1, G9</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>20191213a37.itc</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SIM Compound 34 into receptor (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1 Injection SIM.inj</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4.441781158693494</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Plate1, A10</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Plate1, B10</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Plate1, A10</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>20191213a38.itc</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>HDR Compound 34 into buffer (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>ChoderaHDR.inj</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>4.441781158693494</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Plate1, C10</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Plate1, D10</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Plate1, C10</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>20191213a39.itc</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>HDR Compound 34 into receptor (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>ChoderaHDR.inj</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4.441781158693494</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Plate1, E10</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Plate1, F10</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Plate1, E10</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>20191213a40.itc</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>titration of Compound 10 into buffer (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>ChoderaHSA.inj</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>4.816933648886398</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Plate1, G10</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Plate1, H10</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Plate1, G10</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>20191213a41.itc</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>titration of Compound 10 into receptor (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Plates Clean.setup</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>ChoderaHSA.inj</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G42" t="n">
+        <v>4.816933648886398</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Plate1, A11</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Plate1, B11</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Plate1, A11</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>20191213a42.itc</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>SIM Compound 10 into buffer (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1 Injection SIM.inj</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>4.816933648886398</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Plate1, C11</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Plate1, D11</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Plate1, C11</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>20191213a43.itc</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SIM Compound 10 into receptor (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1 Injection SIM.inj</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G44" t="n">
+        <v>4.816933648886398</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Plate1, E11</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Plate1, F11</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Plate1, E11</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>20191213a44.itc</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>HDR Compound 10 into buffer (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>ChoderaHDR.inj</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>4.816933648886398</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Plate1, G11</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Plate1, H11</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Plate1, G11</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>20191213a45.itc</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>HDR Compound 10 into receptor (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>ChoderaHDR.inj</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G46" t="n">
+        <v>4.816933648886398</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Plate1, A12</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Plate1, B12</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Plate1, A12</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>20191213a46.itc</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>titration of Compound 26 into buffer (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>ChoderaHSA.inj</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4.816933648886398</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Plate1, C12</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Plate1, D12</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Plate1, C12</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>20191213a47.itc</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>titration of Compound 26 into receptor (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Plates Clean.setup</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>ChoderaHSA.inj</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4.816933648886398</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Plate1, E12</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Plate1, F12</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Plate1, E12</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>20191213a48.itc</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>SIM Compound 26 into buffer (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1 Injection SIM.inj</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>4.816933648886398</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Plate1, G12</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Plate1, H12</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Plate1, G12</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>20191213a49.itc</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>SIM Compound 26 into receptor (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1 Injection SIM.inj</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G50" t="n">
+        <v>4.816933648886398</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Plate2, A1</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Plate2, B1</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Plate2, A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>20191213a50.itc</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>HDR Compound 26 into buffer (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>ChoderaHDR.inj</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>4.816933648886398</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Plate2, C1</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Plate2, D1</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Plate2, C1</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>20191213a51.itc</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>HDR Compound 26 into receptor (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>ChoderaHDR.inj</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G52" t="n">
+        <v>4.816933648886398</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Plate2, E1</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Plate2, F1</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Plate2, E1</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>20191213a52.itc</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>titration of Compound 34 into buffer (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>ChoderaHSA.inj</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>4.816933648886398</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Plate2, G1</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Plate2, H1</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Plate2, G1</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>20191213a53.itc</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>titration of Compound 34 into receptor (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Plates Clean.setup</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>ChoderaHSA.inj</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G54" t="n">
+        <v>4.816933648886398</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Plate2, A2</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Plate2, B2</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Plate2, A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>20191213a54.itc</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>SIM Compound 34 into buffer (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1 Injection SIM.inj</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>4.816933648886398</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Plate2, C2</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Plate2, D2</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Plate2, C2</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>20191213a55.itc</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>SIM Compound 34 into receptor (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1 Injection SIM.inj</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G56" t="n">
+        <v>4.816933648886398</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Plate2, E2</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Plate2, F2</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Plate2, E2</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>20191213a56.itc</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>HDR Compound 34 into buffer (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>ChoderaHDR.inj</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>4.816933648886398</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Plate2, G2</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Plate2, H2</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Plate2, G2</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>20191213a57.itc</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>HDR Compound 34 into receptor (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>ChoderaHDR.inj</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G58" t="n">
+        <v>4.816933648886398</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Plate2, A3</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Plate2, B3</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Plate2, A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>20191213a58.itc</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>water into water</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>ChoderaWaterWater.inj</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Plate2, C3</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Plate2, D3</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Plate2, C3</t>
         </is>
       </c>
     </row>

--- a/examples/PHIPA/experiments.xlsx
+++ b/examples/PHIPA/experiments.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="plate" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="plate" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -413,7 +413,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHODERA20191218a1.itc</t>
+          <t>CHODERA20191219a1.itc</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,7 +462,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHODERA20191218a2.itc</t>
+          <t>CHODERA20191219a2.itc</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -511,7 +511,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHODERA20191218a3.itc</t>
+          <t>CHODERA20191219a3.itc</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -560,12 +560,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHODERA20191218a4.itc</t>
+          <t>CHODERA20191219a4.itc</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>buffer into receptor</t>
+          <t>titration of Compound 10 into buffer (replicate 1)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,10 +584,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>4.633136414336804</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -609,17 +609,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHODERA20191218a5.itc</t>
+          <t>CHODERA20191219a5.itc</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>titration of Compound 10 into buffer (replicate 1)</t>
+          <t>titration of Compound 10 into receptor (replicate 1)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Plates Quick.setup</t>
+          <t>Plates Clean.setup</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="G6" t="n">
-        <v>4.025027875879669</v>
+        <v>4.633136414336804</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -658,22 +658,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHODERA20191218a6.itc</t>
+          <t>CHODERA20191219a6.itc</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>titration of Compound 10 into receptor (replicate 1)</t>
+          <t>SIM Compound 10 into buffer (replicate 1)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Plates Clean.setup</t>
+          <t>Plates Quick.setup</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ChoderaHSA.inj</t>
+          <t>1 Injection SIM.inj</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4.025027875879669</v>
+        <v>4.633136414336804</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -707,12 +707,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHODERA20191218a7.itc</t>
+          <t>CHODERA20191219a7.itc</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SIM Compound 10 into buffer (replicate 1)</t>
+          <t>SIM Compound 10 into receptor (replicate 1)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,10 +731,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="G8" t="n">
-        <v>4.025027875879669</v>
+        <v>4.633136414336804</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -756,12 +756,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHODERA20191218a8.itc</t>
+          <t>CHODERA20191219a8.itc</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SIM Compound 10 into receptor (replicate 1)</t>
+          <t>HDR Compound 10 into buffer (replicate 1)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1 Injection SIM.inj</t>
+          <t>ChoderaHDR.inj</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>4.025027875879669</v>
+        <v>4.633136414336804</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -805,12 +805,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHODERA20191218a9.itc</t>
+          <t>CHODERA20191219a9.itc</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HDR Compound 10 into buffer (replicate 1)</t>
+          <t>HDR Compound 10 into receptor (replicate 1)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="G10" t="n">
-        <v>4.025027875879669</v>
+        <v>4.633136414336804</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -854,12 +854,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHODERA20191218a10.itc</t>
+          <t>CHODERA20191219a10.itc</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HDR Compound 10 into receptor (replicate 1)</t>
+          <t>water into water</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -869,19 +869,19 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ChoderaHDR.inj</t>
+          <t>ChoderaWaterWater.inj</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Onesite</t>
+          <t>Control</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.025027875879669</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -900,742 +900,7 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>CHODERA20191218a11.itc</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>buffer into receptor</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Plates Quick.setup</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ChoderaHSA.inj</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Onesite</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Plate1, E3</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Plate1, F3</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Plate1, E3</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>CHODERA20191218a12.itc</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>titration of Compound 10 into buffer (replicate 1)</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Plates Quick.setup</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ChoderaHSA.inj</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Onesite</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>4.441781158693494</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Plate1, G3</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Plate1, H3</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Plate1, G3</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>CHODERA20191218a13.itc</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>titration of Compound 10 into receptor (replicate 1)</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Plates Clean.setup</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ChoderaHSA.inj</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Onesite</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G14" t="n">
-        <v>4.441781158693494</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Plate1, A4</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Plate1, B4</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Plate1, A4</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>CHODERA20191218a14.itc</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>SIM Compound 10 into buffer (replicate 1)</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Plates Quick.setup</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1 Injection SIM.inj</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Onesite</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>4.441781158693494</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Plate1, C4</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Plate1, D4</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Plate1, C4</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>CHODERA20191218a15.itc</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>SIM Compound 10 into receptor (replicate 1)</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Plates Quick.setup</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1 Injection SIM.inj</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Onesite</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G16" t="n">
-        <v>4.441781158693494</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Plate1, E4</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Plate1, F4</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Plate1, E4</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>CHODERA20191218a16.itc</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>HDR Compound 10 into buffer (replicate 1)</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Plates Quick.setup</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ChoderaHDR.inj</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Onesite</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>4.441781158693494</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Plate1, G4</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Plate1, H4</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Plate1, G4</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>CHODERA20191218a17.itc</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>HDR Compound 10 into receptor (replicate 1)</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Plates Quick.setup</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>ChoderaHDR.inj</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Onesite</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G18" t="n">
-        <v>4.441781158693494</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Plate1, A5</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Plate1, B5</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Plate1, A5</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>CHODERA20191218a18.itc</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>buffer into receptor</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Plates Quick.setup</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>ChoderaHSA.inj</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Onesite</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Plate1, C5</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Plate1, D5</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Plate1, C5</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>CHODERA20191218a19.itc</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>titration of Compound 10 into buffer (replicate 1)</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Plates Quick.setup</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>ChoderaHSA.inj</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Onesite</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>4.816933648886398</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Plate1, E5</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Plate1, F5</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Plate1, E5</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>CHODERA20191218a20.itc</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>titration of Compound 10 into receptor (replicate 1)</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Plates Clean.setup</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>ChoderaHSA.inj</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Onesite</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G21" t="n">
-        <v>4.816933648886398</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Plate1, G5</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Plate1, H5</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Plate1, G5</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>CHODERA20191218a21.itc</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>SIM Compound 10 into buffer (replicate 1)</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Plates Quick.setup</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1 Injection SIM.inj</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Onesite</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>4.816933648886398</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Plate1, A6</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Plate1, B6</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Plate1, A6</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>CHODERA20191218a22.itc</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>SIM Compound 10 into receptor (replicate 1)</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Plates Quick.setup</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1 Injection SIM.inj</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Onesite</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G23" t="n">
-        <v>4.816933648886398</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Plate1, C6</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Plate1, D6</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Plate1, C6</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>CHODERA20191218a23.itc</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>HDR Compound 10 into buffer (replicate 1)</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Plates Quick.setup</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>ChoderaHDR.inj</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Onesite</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>4.816933648886398</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Plate1, E6</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Plate1, F6</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Plate1, E6</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>CHODERA20191218a24.itc</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>HDR Compound 10 into receptor (replicate 1)</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Plates Quick.setup</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>ChoderaHDR.inj</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Onesite</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G25" t="n">
-        <v>4.816933648886398</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Plate1, G6</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Plate1, H6</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Plate1, G6</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>CHODERA20191218a25.itc</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>water into water</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Plates Quick.setup</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>ChoderaWaterWater.inj</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Control</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Plate1, A7</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Plate1, B7</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Plate1, A7</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/examples/PHIPA/experiments.xlsx
+++ b/examples/PHIPA/experiments.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="plate" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="plate" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -413,7 +413,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHODERA20191219a1.itc</t>
+          <t>CHODERA20200212a1.itc</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,7 +462,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHODERA20191219a2.itc</t>
+          <t>CHODERA20200212a2.itc</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -511,7 +511,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHODERA20191219a3.itc</t>
+          <t>CHODERA20200212a3.itc</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -560,7 +560,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHODERA20191219a4.itc</t>
+          <t>CHODERA20200212a4.itc</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.633136414336804</v>
+        <v>4.633136414336805</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHODERA20191219a5.itc</t>
+          <t>CHODERA20200212a5.itc</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.025</v>
+        <v>0.02500000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>4.633136414336804</v>
+        <v>4.633136414336805</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHODERA20191219a6.itc</t>
+          <t>CHODERA20200212a6.itc</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4.633136414336804</v>
+        <v>4.633136414336805</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -707,7 +707,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHODERA20191219a7.itc</t>
+          <t>CHODERA20200212a7.itc</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -731,10 +731,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.025</v>
+        <v>0.02500000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>4.633136414336804</v>
+        <v>4.633136414336805</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHODERA20191219a8.itc</t>
+          <t>CHODERA20200212a8.itc</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>4.633136414336804</v>
+        <v>4.633136414336805</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHODERA20191219a9.itc</t>
+          <t>CHODERA20200212a9.itc</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.025</v>
+        <v>0.02500000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>4.633136414336804</v>
+        <v>4.633136414336805</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHODERA20191219a10.itc</t>
+          <t>CHODERA20200212a10.itc</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -901,6 +901,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/examples/PHIPA/experiments.xlsx
+++ b/examples/PHIPA/experiments.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="plate" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="plate" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -413,7 +413,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHODERA20200212a1.itc</t>
+          <t>CHODERA20200226a1.itc</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,7 +462,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHODERA20200212a2.itc</t>
+          <t>CHODERA20200226a2.itc</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -511,7 +511,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHODERA20200212a3.itc</t>
+          <t>CHODERA20200226a3.itc</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -560,7 +560,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHODERA20200212a4.itc</t>
+          <t>CHODERA20200226a4.itc</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -609,7 +609,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHODERA20200212a5.itc</t>
+          <t>CHODERA20200226a5.itc</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -658,7 +658,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHODERA20200212a6.itc</t>
+          <t>CHODERA20200226a6.itc</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -707,7 +707,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHODERA20200212a7.itc</t>
+          <t>CHODERA20200226a7.itc</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -756,7 +756,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHODERA20200212a8.itc</t>
+          <t>CHODERA20200226a8.itc</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -805,7 +805,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHODERA20200212a9.itc</t>
+          <t>CHODERA20200226a9.itc</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -854,7 +854,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHODERA20200212a10.itc</t>
+          <t>CHODERA20200226a10.itc</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -901,6 +901,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/examples/PHIPA/experiments.xlsx
+++ b/examples/PHIPA/experiments.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="plate" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="plate" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -413,7 +413,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHODERA20191219a1.itc</t>
+          <t>CHODERA20191220a1.itc</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,7 +462,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHODERA20191219a2.itc</t>
+          <t>CHODERA20191220a2.itc</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -511,7 +511,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHODERA20191219a3.itc</t>
+          <t>CHODERA20191220a3.itc</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -560,12 +560,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHODERA20191219a4.itc</t>
+          <t>CHODERA20191220a4.itc</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>titration of Compound 10 into buffer (replicate 1)</t>
+          <t>titration of Compound 26 into buffer (replicate 1)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.633136414336804</v>
+        <v>5.820569192230413</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -609,12 +609,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHODERA20191219a5.itc</t>
+          <t>CHODERA20191220a5.itc</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>titration of Compound 10 into receptor (replicate 1)</t>
+          <t>titration of Compound 26 into receptor (replicate 1)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.025</v>
+        <v>0.06</v>
       </c>
       <c r="G6" t="n">
-        <v>4.633136414336804</v>
+        <v>5.820569192230413</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -658,12 +658,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHODERA20191219a6.itc</t>
+          <t>CHODERA20191220a6.itc</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SIM Compound 10 into buffer (replicate 1)</t>
+          <t>SIM Compound 26 into buffer (replicate 1)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4.633136414336804</v>
+        <v>5.820569192230413</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -707,12 +707,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHODERA20191219a7.itc</t>
+          <t>CHODERA20191220a7.itc</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SIM Compound 10 into receptor (replicate 1)</t>
+          <t>SIM Compound 26 into receptor (replicate 1)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,10 +731,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.025</v>
+        <v>0.06</v>
       </c>
       <c r="G8" t="n">
-        <v>4.633136414336804</v>
+        <v>5.820569192230413</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -756,12 +756,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHODERA20191219a8.itc</t>
+          <t>CHODERA20191220a8.itc</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HDR Compound 10 into buffer (replicate 1)</t>
+          <t>HDR Compound 26 into buffer (replicate 1)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>4.633136414336804</v>
+        <v>5.820569192230413</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -805,12 +805,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHODERA20191219a9.itc</t>
+          <t>CHODERA20191220a9.itc</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HDR Compound 10 into receptor (replicate 1)</t>
+          <t>HDR Compound 26 into receptor (replicate 1)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.025</v>
+        <v>0.06</v>
       </c>
       <c r="G10" t="n">
-        <v>4.633136414336804</v>
+        <v>5.820569192230413</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -854,12 +854,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHODERA20191219a10.itc</t>
+          <t>CHODERA20191220a10.itc</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>water into water</t>
+          <t>titration of Compound 26 into buffer (replicate 1)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -869,19 +869,19 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ChoderaWaterWater.inj</t>
+          <t>ChoderaHSA.inj</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Control</t>
+          <t>Onesite</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.010831140863469</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -900,7 +900,301 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CHODERA20191220a11.itc</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>titration of Compound 26 into receptor (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Plates Clean.setup</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ChoderaHSA.inj</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G12" t="n">
+        <v>7.010831140863469</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Plate1, E3</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Plate1, F3</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Plate1, E3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CHODERA20191220a12.itc</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SIM Compound 26 into buffer (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1 Injection SIM.inj</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7.010831140863469</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Plate1, G3</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Plate1, H3</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Plate1, G3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CHODERA20191220a13.itc</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SIM Compound 26 into receptor (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1 Injection SIM.inj</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7.010831140863469</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Plate1, A4</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Plate1, B4</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Plate1, A4</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CHODERA20191220a14.itc</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HDR Compound 26 into buffer (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ChoderaHDR.inj</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7.010831140863469</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Plate1, C4</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Plate1, D4</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Plate1, C4</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CHODERA20191220a15.itc</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>HDR Compound 26 into receptor (replicate 1)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ChoderaHDR.inj</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Onesite</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7.010831140863469</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Plate1, E4</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Plate1, F4</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Plate1, E4</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CHODERA20191220a16.itc</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>water into water</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Plates Quick.setup</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ChoderaWaterWater.inj</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Plate1, G4</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Plate1, H4</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Plate1, G4</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>